--- a/dataproject/Entities_size.xlsx
+++ b/dataproject/Entities_size.xlsx
@@ -1,14 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/66d05171bd16def4/Área de Trabalho/University of Copenhagen/Second Semester/Introduction to Programing and Numerical Analysis/projects-2023-it-hurts-when-ip/dataproject/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_B25546B70DABF45A6C240A05FE012D16D1823F69" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76042DD4-CE0A-43EE-8EA0-FA6E574E7568}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -51,9 +58,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -61,9 +68,10 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
-      <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,55 +90,398 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
-      <alignment horizontal="general" vertical="center"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:4">
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -144,21 +495,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4">
-        <v>0.039344262295081971</v>
+        <v>3.9344262295081971E-2</v>
       </c>
       <c r="C4" s="4">
-        <v>0.062147953435974464</v>
+        <v>6.2147953435974464E-2</v>
       </c>
       <c r="D4" s="4">
-        <v>0.066083916083916089</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>6.6083916083916089E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -172,12 +523,12 @@
         <v>0.20687645687645687</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4">
-        <v>0.062295081967213117</v>
+        <v>6.2295081967213117E-2</v>
       </c>
       <c r="C6" s="4">
         <v>0.12730003755163349</v>
@@ -186,7 +537,7 @@
         <v>0.14545454545454545</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -200,18 +551,18 @@
         <v>0.53275058275058274</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4">
-        <v>0.019672131147540985</v>
+        <v>1.9672131147540985E-2</v>
       </c>
       <c r="C8" s="4">
-        <v>0.056515208411565904</v>
+        <v>5.6515208411565904E-2</v>
       </c>
       <c r="D8" s="4">
-        <v>0.048834498834498835</v>
+        <v>4.8834498834498835E-2</v>
       </c>
     </row>
   </sheetData>
@@ -219,5 +570,6 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B1:D1"/>
   </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/dataproject/Entities_size.xlsx
+++ b/dataproject/Entities_size.xlsx
@@ -8,19 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/66d05171bd16def4/Área de Trabalho/University of Copenhagen/Second Semester/Introduction to Programing and Numerical Analysis/projects-2023-it-hurts-when-ip/dataproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_B25546B70DABF45A6C240A05FE012D16D1823F69" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76042DD4-CE0A-43EE-8EA0-FA6E574E7568}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{04D4C0AF-534B-48CE-9CAC-FBECF73C8EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A13A8F77-39F2-44F9-A5EA-1E0CFA2A39B2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="10356" yWindow="2496" windowWidth="9024" windowHeight="8208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Entities_size" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t>EU27 + UK</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>10 Aviation</t>
+  </si>
+  <si>
+    <t>20 Combustion of fuels</t>
+  </si>
+  <si>
+    <t>20-99 All stationary installations</t>
+  </si>
   <si>
     <t>Large (emissions &gt; 500 kt CO2-eq)</t>
   </si>
@@ -36,53 +51,329 @@
   <si>
     <t>Zero (emissions = 0 kt CO2-eq)</t>
   </si>
-  <si>
-    <t>10 Aviation</t>
-  </si>
-  <si>
-    <t>20 Combustion of fuels</t>
-  </si>
-  <si>
-    <t>20-99 All stationary installations</t>
-  </si>
-  <si>
-    <t>EU27 + UK</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
-  </numFmts>
-  <fonts count="2">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+  <fonts count="18" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -94,54 +385,200 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -455,121 +892,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>2021</v>
+      </c>
+      <c r="C1">
+        <v>2021</v>
+      </c>
+      <c r="D1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3.9300000000000002E-2</v>
+      </c>
+      <c r="C4">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="D4">
+        <v>6.6100000000000006E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.16070000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.15939999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.2069</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>6.2300000000000001E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.1273</v>
+      </c>
+      <c r="D6">
+        <v>0.14549999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="C7">
+        <v>0.59460000000000002</v>
+      </c>
+      <c r="D7">
+        <v>0.53280000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4">
-        <v>3.9344262295081971E-2</v>
-      </c>
-      <c r="C4" s="4">
-        <v>6.2147953435974464E-2</v>
-      </c>
-      <c r="D4" s="4">
-        <v>6.6083916083916089E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.16065573770491803</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.15940668419076229</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.20687645687645687</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4">
-        <v>6.2295081967213117E-2</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.12730003755163349</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.14545454545454545</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.71803278688524586</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.5946301164100638</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.53275058275058274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1.9672131147540985E-2</v>
-      </c>
-      <c r="C8" s="4">
-        <v>5.6515208411565904E-2</v>
-      </c>
-      <c r="D8" s="4">
-        <v>4.8834498834498835E-2</v>
+      <c r="B8">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="C8">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="D8">
+        <v>4.8800000000000003E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/dataproject/Entities_size.xlsx
+++ b/dataproject/Entities_size.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/66d05171bd16def4/Área de Trabalho/University of Copenhagen/Second Semester/Introduction to Programing and Numerical Analysis/projects-2023-it-hurts-when-ip/dataproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{04D4C0AF-534B-48CE-9CAC-FBECF73C8EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A13A8F77-39F2-44F9-A5EA-1E0CFA2A39B2}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{04D4C0AF-534B-48CE-9CAC-FBECF73C8EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D029375-F3F2-4D11-B2E5-377994219D57}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="10356" yWindow="2496" windowWidth="9024" windowHeight="8208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities_size" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>EU27 + UK</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Size</t>
   </si>
@@ -591,6 +588,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -890,9 +891,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -902,108 +905,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1">
-        <v>2021</v>
-      </c>
-      <c r="C1">
-        <v>2021</v>
-      </c>
-      <c r="D1">
-        <v>2021</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>3.9300000000000002E-2</v>
+      </c>
+      <c r="C2">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="D2">
+        <v>6.6100000000000006E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.16070000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.15939999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.2069</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>3.9300000000000002E-2</v>
+        <v>6.2300000000000001E-2</v>
       </c>
       <c r="C4">
-        <v>6.2100000000000002E-2</v>
+        <v>0.1273</v>
       </c>
       <c r="D4">
-        <v>6.6100000000000006E-2</v>
+        <v>0.14549999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>0.16070000000000001</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="C5">
-        <v>0.15939999999999999</v>
+        <v>0.59460000000000002</v>
       </c>
       <c r="D5">
-        <v>0.2069</v>
+        <v>0.53280000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>6.2300000000000001E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="C6">
-        <v>0.1273</v>
+        <v>5.6500000000000002E-2</v>
       </c>
       <c r="D6">
-        <v>0.14549999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="C7">
-        <v>0.59460000000000002</v>
-      </c>
-      <c r="D7">
-        <v>0.53280000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>1.9699999999999999E-2</v>
-      </c>
-      <c r="C8">
-        <v>5.6500000000000002E-2</v>
-      </c>
-      <c r="D8">
         <v>4.8800000000000003E-2</v>
       </c>
     </row>
